--- a/src/data/profiles/xlsx/bluff/profile 30-3 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 30-3 graph.xlsx
@@ -20385,11 +20385,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96853627"/>
-        <c:axId val="2319963"/>
+        <c:axId val="16843806"/>
+        <c:axId val="73381286"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96853627"/>
+        <c:axId val="16843806"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20424,12 +20424,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2319963"/>
+        <c:crossAx val="73381286"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2319963"/>
+        <c:axId val="73381286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20473,7 +20473,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96853627"/>
+        <c:crossAx val="16843806"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
